--- a/PLScombined/PLScombined_predicted_factors_matrix_5.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-1.112712957020483</v>
       </c>
+      <c r="F2" t="n">
+        <v>-1.138661063951294</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.167910670402191</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.199365477354509</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.231266375818872</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.263985524499239</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.297011702696412</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.329967398463954</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.362574622009136</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.394630826008119</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.425990222337986</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.456549952400673</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.486239752882316</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.515014091282764</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.542846185525798</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.569723444934927</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.595643985257478</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.620613958104508</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.644645500131266</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.669212507492604</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.692853419903353</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.715587894459471</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.737437877359844</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.758426858877626</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.780029298091263</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.800793089703079</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.820741537177486</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.8398985779842</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.858288432683015</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.877361191677652</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.898282735860507</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.918430643353055</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.937824879745456</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.956486161469893</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.976787457298097</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.997426245176261</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-2.017334846201863</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-2.036532051520021</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-2.055037120185631</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-2.072869540732793</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.090048818326718</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.107647469891226</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.124613284673698</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.02175256593394804</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.0561307048661947</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.07942931005158482</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.09447388986996308</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.1026478876449593</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.1063108599183405</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1068658317978904</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.1053560862237488</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.1025490885031601</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.09900671537809588</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.09513070123793219</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.09120322503705529</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.0874167454380662</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.08389692401971378</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.0807201785749882</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.0779270786587808</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.07553252568253055</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.0735334493739729</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.07191458907645784</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.0710486462759119</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.0704734485173963</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.07016470269140497</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.07009659714366231</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.07024300009132044</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.07094065802447308</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.07177869284163091</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.07273743431262773</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.07379829320309048</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.07494397040098838</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.07652050363468445</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.07880130327438253</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.08108285248493927</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08335658988410316</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.08561469738659515</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.08849978720163434</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.09164032150637179</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.09472242981928672</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.09774123540015088</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1006925516465646</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1035728773299757</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1063793866181134</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.109446480032078</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1124255707879416</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.2844856958652496</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.2129584694237149</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.157699476816887</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1150850734727066</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.08087998183705265</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05504618849760223</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.03566421599533387</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.02120596986237431</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0104873167127265</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.002611499238248568</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.003120720125314089</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.007242817970156043</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.01016283539830038</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.01219237695977119</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.01356873873837934</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.01447196397674513</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.01503802000623305</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.01536898842607838</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.01554094921407886</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.01574413590100561</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.01586387879366533</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.01593505207107631</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.01598166400051108</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.01602044561196908</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.01618545709814717</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.01634152137996071</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.01649975130241937</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.01666599436341165</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.01684349039104734</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.01714882953900619</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.01766193945643161</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.01815343653298802</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.01863570992696497</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.01911328943220796</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.01979218895207992</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.02054648535797944</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.02128320622973018</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.02200909919948052</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.02272632103573353</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.02343563185589903</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02413705016734864</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.02494158553844411</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.02572946001481034</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.2979666366835982</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2285987778677483</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1744627578009325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1322859029762374</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.09771035045688338</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07143995975837275</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05152793762047807</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0365083432154899</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.02525259094884787</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01687954423499889</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01071373558133283</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.006230333987487791</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.003023256445494691</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.0007789127724134644</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.0007443584895548945</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.001732305485621451</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.002327236924319299</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.002637743869294523</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.002746280154845026</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.002771423273003674</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.002695783162618235</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.002553985596944426</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.002372409905135076</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.002170429857452067</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.002010696571207927</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.001847023581673416</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.001687056425926968</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.001536804317424213</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.001400173609634459</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.001319950997410603</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.001327089210762956</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.001346721833478066</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.001378062491964928</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.001422479457607107</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.001553363881317263</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.001735961815349195</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.001934828920021919</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.002148132975007946</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.002375274601931909</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.002615276303909301</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.002866781520270877</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.003176355498359741</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.003497175274214819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,6 +1163,132 @@
       </c>
       <c r="E6" t="n">
         <v>0.02398639583520285</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02910205670785945</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03116724753944147</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03133734595052969</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02985106370702065</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0279018894937742</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.02581538755760706</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.02377180073461112</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02186786663537545</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02015292887944857</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01864315118263039</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01733529933629165</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.01621584593589357</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01526615545994602</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01446577328376372</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01379440346099595</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01323302273546115</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01276443907129946</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01237350238088743</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01218405605451702</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.01200797856392863</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01184697626343539</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01170146546035758</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01157087838787206</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01157647502587535</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01156245297365826</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01153536351828548</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01150008312134978</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01145995158079228</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01153340240594389</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01179100619937677</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0119799635816575</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01211527191783147</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01220952080659856</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01247262182818839</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01276414711170087</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01298653585319948</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01315323375954082</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01327553683018665</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01336242716265358</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01342100653007523</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01355043426618864</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01364344323671241</v>
       </c>
     </row>
   </sheetData>
